--- a/3. 알고리즘/9일차_0804/연습장.xlsx
+++ b/3. 알고리즘/9일차_0804/연습장.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkddy\Desktop\TIL\3. 알고리즘\9일차_0804\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D68C33-AC8A-4C28-AA1D-43F991CAED7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5230C00-4D2C-4B07-AFB0-5E8D18973DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{42C1B423-C0DC-4300-B565-26A030F8C589}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{42C1B423-C0DC-4300-B565-26A030F8C589}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="220808" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>백준 1652</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +53,54 @@
   </si>
   <si>
     <t>행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_옵션개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_옵션1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_옵션2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_자동차가격(total)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_자동차가격(total)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_자동차가격(원가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_자동차가격(원가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준 9325 얼마?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -76,7 +125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +141,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,7 +180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -140,6 +195,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2DA357-4987-461F-9A0E-52782AC1F858}">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -650,4 +711,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075E8737-C562-4F59-8B2D-A111B0982B78}">
+  <dimension ref="B2:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>400</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/3. 알고리즘/9일차_0804/연습장.xlsx
+++ b/3. 알고리즘/9일차_0804/연습장.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkddy\Desktop\TIL\3. 알고리즘\9일차_0804\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5230C00-4D2C-4B07-AFB0-5E8D18973DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28D7709-1E5B-4764-A0F5-54820C779887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{42C1B423-C0DC-4300-B565-26A030F8C589}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{42C1B423-C0DC-4300-B565-26A030F8C589}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="220808" sheetId="2" r:id="rId2"/>
+    <sheet name="220810" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>백준 1652</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +102,38 @@
   </si>
   <si>
     <t>백준 9325 얼마?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준1598</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">//4 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 수를 각자 1씩 빼줬을 때 아래와 같이 됌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준5576</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 입력값을 리스트로 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 리스트 저장 후 큰 값 3개 합하여 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +180,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,7 +243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,10 +259,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -257,6 +338,99 @@
         <a:xfrm>
           <a:off x="800100" y="2609850"/>
           <a:ext cx="3895725" cy="8485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>84428</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>189911</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31519828-B431-B1F7-FD2A-93007985620D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="3228975"/>
+          <a:ext cx="10371428" cy="4714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>132043</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>113724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CDE29B-E062-F070-BC7B-C49638B45201}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="8496300"/>
+          <a:ext cx="10457143" cy="4609524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -717,7 +891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075E8737-C562-4F59-8B2D-A111B0982B78}">
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -731,7 +905,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -753,7 +927,6 @@
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5"/>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
@@ -769,7 +942,6 @@
         <v>10000</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="5"/>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
@@ -785,7 +957,6 @@
         <v>2</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -797,7 +968,6 @@
       <c r="D8" s="2">
         <v>2000</v>
       </c>
-      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -809,7 +979,6 @@
       <c r="D9" s="2">
         <v>400</v>
       </c>
-      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -819,7 +988,6 @@
         <v>50000</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -827,10 +995,246 @@
         <v>0</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC605539-550D-4397-ADF2-81547CEF0A08}">
+  <dimension ref="B2:M40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="12" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5</v>
+      </c>
+      <c r="I5" s="6">
+        <v>6</v>
+      </c>
+      <c r="J5" s="6">
+        <v>7</v>
+      </c>
+      <c r="K5" s="6">
+        <v>8</v>
+      </c>
+      <c r="L5" s="6">
+        <v>9</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11">
+        <v>8</v>
+      </c>
+      <c r="F6" s="11">
+        <v>12</v>
+      </c>
+      <c r="G6" s="11">
+        <v>16</v>
+      </c>
+      <c r="H6" s="11">
+        <v>20</v>
+      </c>
+      <c r="I6" s="11">
+        <v>24</v>
+      </c>
+      <c r="J6" s="11">
+        <v>28</v>
+      </c>
+      <c r="K6" s="12">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2">
+        <v>36</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="11">
+        <v>9</v>
+      </c>
+      <c r="F7" s="11">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11">
+        <v>17</v>
+      </c>
+      <c r="H7" s="11">
+        <v>21</v>
+      </c>
+      <c r="I7" s="11">
+        <v>25</v>
+      </c>
+      <c r="J7" s="11">
+        <v>29</v>
+      </c>
+      <c r="K7" s="11">
+        <v>33</v>
+      </c>
+      <c r="L7" s="2">
+        <v>37</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="12">
+        <v>10</v>
+      </c>
+      <c r="F8" s="11">
+        <v>14</v>
+      </c>
+      <c r="G8" s="11">
+        <v>18</v>
+      </c>
+      <c r="H8" s="11">
+        <v>22</v>
+      </c>
+      <c r="I8" s="11">
+        <v>26</v>
+      </c>
+      <c r="J8" s="11">
+        <v>30</v>
+      </c>
+      <c r="K8" s="11">
+        <v>34</v>
+      </c>
+      <c r="L8" s="2">
+        <v>38</v>
+      </c>
+      <c r="M8" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7</v>
+      </c>
+      <c r="E9" s="11">
+        <v>11</v>
+      </c>
+      <c r="F9" s="11">
+        <v>15</v>
+      </c>
+      <c r="G9" s="11">
+        <v>19</v>
+      </c>
+      <c r="H9" s="11">
+        <v>23</v>
+      </c>
+      <c r="I9" s="11">
+        <v>27</v>
+      </c>
+      <c r="J9" s="11">
+        <v>31</v>
+      </c>
+      <c r="K9" s="11">
+        <v>35</v>
+      </c>
+      <c r="L9" s="2">
+        <v>39</v>
+      </c>
+      <c r="M9" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="9">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/3. 알고리즘/9일차_0804/연습장.xlsx
+++ b/3. 알고리즘/9일차_0804/연습장.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkddy\Desktop\TIL\3. 알고리즘\9일차_0804\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28D7709-1E5B-4764-A0F5-54820C779887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B1DBC2-226E-4452-BC22-E8C27E4D54AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{42C1B423-C0DC-4300-B565-26A030F8C589}"/>
+    <workbookView xWindow="3585" yWindow="2175" windowWidth="11745" windowHeight="11385" activeTab="3" xr2:uid="{42C1B423-C0DC-4300-B565-26A030F8C589}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="220808" sheetId="2" r:id="rId2"/>
     <sheet name="220810" sheetId="3" r:id="rId3"/>
+    <sheet name="220811" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>백준 1652</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">//4 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입력한 수를 각자 1씩 빼줬을 때 아래와 같이 됌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,6 +131,30 @@
   </si>
   <si>
     <t>2. 리스트 저장 후 큰 값 3개 합하여 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n % 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">n // 4 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백준25304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산 금액과 영수증 내역이 맞는지 확인하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예제 입력 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예제 입력 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -271,9 +292,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -281,6 +299,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -431,6 +452,99 @@
         <a:xfrm>
           <a:off x="742950" y="8496300"/>
           <a:ext cx="10457143" cy="4609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142245</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>37702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F420DF07-0F51-3981-5B60-C294EEF768B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1047750"/>
+          <a:ext cx="5038095" cy="3180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>608987</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1134698-91CB-6DB5-CD47-DA9459DDAF88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="1047750"/>
+          <a:ext cx="4904762" cy="3190476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1006,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC605539-550D-4397-ADF2-81547CEF0A08}">
   <dimension ref="B2:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1016,18 +1130,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -1059,8 +1173,8 @@
       <c r="L5" s="6">
         <v>9</v>
       </c>
-      <c r="M5" s="7">
-        <v>0.04</v>
+      <c r="M5" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
@@ -1070,25 +1184,25 @@
       <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>8</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>12</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>16</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>20</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>24</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>28</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <v>32</v>
       </c>
       <c r="L6" s="2">
@@ -1105,25 +1219,25 @@
       <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>9</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>13</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>17</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>21</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>25</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>29</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>33</v>
       </c>
       <c r="L7" s="2">
@@ -1140,25 +1254,25 @@
       <c r="D8" s="2">
         <v>6</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>10</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>14</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>18</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>22</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>26</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <v>30</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>34</v>
       </c>
       <c r="L8" s="2">
@@ -1175,25 +1289,25 @@
       <c r="D9" s="2">
         <v>7</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>11</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>15</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>19</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>23</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>27</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>31</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>35</v>
       </c>
       <c r="L9" s="2">
@@ -1205,31 +1319,70 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" s="9">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E17B73-5E79-40AA-9091-42C71B613539}">
+  <dimension ref="B2:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
